--- a/software/3D-CMCC-Forest-Model/tables/CO2_modifier_Franks.xlsx
+++ b/software/3D-CMCC-Forest-Model/tables/CO2_modifier_Franks.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="6465"/>
@@ -43,9 +43,6 @@
     <t>Ca rcp6.0</t>
   </si>
   <si>
-    <t>Ca rcp5.5</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -67,7 +64,10 @@
     <t>CO2 Modifier rcp6.0</t>
   </si>
   <si>
-    <t>CO2 Modifier rcp5.5</t>
+    <t>Ca rcp8.5</t>
+  </si>
+  <si>
+    <t>CO2 Modifier rcp8.5</t>
   </si>
 </sst>
 </file>
@@ -124,10 +124,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.3085739282589675E-2"/>
+          <c:x val="9.3085739282589688E-2"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.82259470691163605"/>
-          <c:h val="0.81870771361913097"/>
+          <c:w val="0.82259470691163594"/>
+          <c:h val="0.81870771361913119"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1564,8 +1564,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="94524160"/>
-        <c:axId val="99610624"/>
+        <c:axId val="104434304"/>
+        <c:axId val="104448384"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1578,7 +1578,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CO2 Modifier rcp5.5</c:v>
+                  <c:v>CO2 Modifier rcp8.5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2047,24 +2047,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="117357568"/>
-        <c:axId val="117355264"/>
+        <c:axId val="70098944"/>
+        <c:axId val="109181184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94524160"/>
+        <c:axId val="104434304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99610624"/>
+        <c:crossAx val="104448384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99610624"/>
+        <c:axId val="104448384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2073,12 +2073,12 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94524160"/>
+        <c:crossAx val="104434304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117355264"/>
+        <c:axId val="109181184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2087,19 +2087,20 @@
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117357568"/>
+        <c:crossAx val="70098944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="117357568"/>
+        <c:axId val="70098944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="117355264"/>
+        <c:crossAx val="109181184"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2111,10 +2112,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.9013779527559048E-2"/>
-          <c:y val="5.4787839020122492E-2"/>
+          <c:x val="9.9013779527559034E-2"/>
+          <c:y val="5.4787839020122506E-2"/>
           <c:w val="0.31209733158355207"/>
-          <c:h val="0.33486876640419949"/>
+          <c:h val="0.3348687664041996"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2127,7 +2128,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2460,7 +2461,7 @@
   <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2476,22 +2477,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -7025,10 +7026,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
